--- a/REZAS/LR1_Rules.xlsx
+++ b/REZAS/LR1_Rules.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="195">
   <si>
     <t>Имя процесса</t>
   </si>
@@ -365,33 +365,6 @@
     <t>tcp://40.126.31.5:443 - Microsoft Corporation</t>
   </si>
   <si>
-    <t>udp://ff02::1:2:547 - DHCPv6</t>
-  </si>
-  <si>
-    <t>tcp://212.188.32.138:80 - Магистральная сеть МТС</t>
-  </si>
-  <si>
-    <t>udp://172.24.48.1:1900 - Microsoft SSDP Enables discovery of UPnP devices</t>
-  </si>
-  <si>
-    <t>tcp://40.126.31.2:443 - Microsoft Corporation</t>
-  </si>
-  <si>
-    <t>udp://255.255.255.255:67 - DHCP</t>
-  </si>
-  <si>
-    <t>udp://172.24.48.1:67 - DHCP</t>
-  </si>
-  <si>
-    <t>udp://ff02::1:3:5355 - Link-Local Multicast Name Resolution, позволяет хостам выполнять разрешение имен для хостов по одному и тому же локальному каналу (предоставляется только в Windows Vista и Server 2008)</t>
-  </si>
-  <si>
-    <t>udp://20.101.57.9:123 - Microsoft Corporation. NTP (Network Time Protocol) — используется для синхронизации времени</t>
-  </si>
-  <si>
-    <t>udp://172.24.48.1:68 - DHCP</t>
-  </si>
-  <si>
     <t>tcp://52.113.194.132:443- Microsoft Corporation</t>
   </si>
   <si>
@@ -479,34 +452,16 @@
     <t>Блокировать tcp&amp;udp</t>
   </si>
   <si>
-    <t>Блокировать udp://*:547</t>
-  </si>
-  <si>
     <t>Разрешить tcp://*:80</t>
   </si>
   <si>
-    <t>Разрешить udp://*:1900</t>
-  </si>
-  <si>
     <t>Разрешить udp://*:5353</t>
   </si>
   <si>
-    <t>Разрешить udp://*:123</t>
-  </si>
-  <si>
     <t>Блокировать tcp://*:80</t>
   </si>
   <si>
     <t>Блокировать tcp://*:443</t>
-  </si>
-  <si>
-    <t>Блокировать udp://*:5355</t>
-  </si>
-  <si>
-    <t>Разрешить udp://*:67 в локальной сети</t>
-  </si>
-  <si>
-    <t>Разрешить udp://*:68 в локальной сети</t>
   </si>
   <si>
     <t>udp://224.0.0.251:5353 - Internet Assigned Numbers Authority (IANA) Multicast DNS (MDNS).</t>
@@ -629,46 +584,13 @@
     <t>Главный процесс, связанный с системными функциями Windows, которые запускаются из динамически подключаемых библиотек. Оболочка загружаемая из svchost.exe используется для размещения dll-служб. Несколько dll-служб объединяются в группы и исполняются под одним экземляром svchost.exe</t>
   </si>
   <si>
-    <t>"-k netsvcs -p"</t>
-  </si>
-  <si>
     <t>"-k NetworkService -p"</t>
   </si>
   <si>
-    <t>" -k LocalServiceAndNoImpersonation -p"</t>
-  </si>
-  <si>
-    <t>"-k RPCSS -p"</t>
-  </si>
-  <si>
-    <t>windows push notifications system service</t>
-  </si>
-  <si>
-    <t>Служба push-уведомлений</t>
-  </si>
-  <si>
     <t>dnscache</t>
   </si>
   <si>
-    <t>ssdpsrv</t>
-  </si>
-  <si>
     <t>Служба кэширования DNS на стороне клиента.</t>
-  </si>
-  <si>
-    <t>Служба необходима для обмена данными между процессами/компонентами программ.</t>
-  </si>
-  <si>
-    <t>rpcss</t>
-  </si>
-  <si>
-    <t>Служба обнаружения SSDP (SSDPSRV) — включает обнаружение UPnP-устройств в домашней сети.</t>
-  </si>
-  <si>
-    <t>sharedaccess</t>
-  </si>
-  <si>
-    <t>Данный сервис необходим для корректной раздачи/приема от раздающего интернета.</t>
   </si>
   <si>
     <r>
@@ -686,6 +608,26 @@
       </rPr>
       <t>Cortana</t>
     </r>
+  </si>
+  <si>
+    <t>Разрешить udpv4://224.0.0.251:5353</t>
+  </si>
+  <si>
+    <t>Разрешить udpv4://224.0.0.252:5355</t>
+  </si>
+  <si>
+    <t>udp://224.0.0.252:5355 - Internet Assigned Numbers Authority (IANA) Multicast DNS (MDNS).</t>
+  </si>
+  <si>
+    <t>Заблокировать tcp://*:80</t>
+  </si>
+  <si>
+    <t>Разрешить tcpv4://40.90.65.53:443
+Разрешить tcpv4://40.126.31.140:443</t>
+  </si>
+  <si>
+    <t>tcp://40.90.65.53:443 - Microsoft Corporation
+tcp://40.126.31.140:443 - Microsoft Corporation</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K315"/>
+  <dimension ref="A1:K309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,10 +1084,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>109</v>
@@ -1165,10 +1107,10 @@
         <v>81</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>110</v>
@@ -1182,10 +1124,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>111</v>
@@ -1202,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>112</v>
@@ -1225,19 +1167,28 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1245,590 +1196,548 @@
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>211</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="6" t="s">
+    <row r="10" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="G13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G16" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="G19" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E23" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="G29" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="G30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="G31" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
+      <c r="G32" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>86</v>
@@ -1839,716 +1748,620 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="G38" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="G41" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="G42" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="G43" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="D46" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4" t="s">
-        <v>85</v>
+      <c r="B61" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C298" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C299" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C300" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C301" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C302" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C303" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.3">
@@ -2561,11 +2374,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C306" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C307" s="1" t="s">
         <v>12</v>
@@ -2578,31 +2386,6 @@
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C309" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C310" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C311" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C313" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C314" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C315" s="1" t="s">
         <v>12</v>
       </c>
     </row>
